--- a/data/trans_orig/P6604-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31484DB-DE3D-4ECE-B641-B86BBD3E77C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64869A86-5BF4-4A0B-B9B2-9A4A07CE8115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5472AFC2-3CC1-410C-B31E-83DC1FB6A220}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{317A056C-07EB-441A-8A41-6197B072B0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="559">
   <si>
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,1660 +77,1645 @@
     <t>24,68%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>34,48%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>23,51%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
   </si>
   <si>
     <t>30,6%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>14,76%</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8852B1B2-3E9F-44AF-9E75-B85FF4CE45D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A736D157-0FF9-4D96-88D9-7D38CAD683FE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2422,10 +2407,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2434,13 +2419,13 @@
         <v>33031</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -2449,13 +2434,13 @@
         <v>129324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2455,13 @@
         <v>375520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -2485,13 +2470,13 @@
         <v>152469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -2500,18 +2485,18 @@
         <v>527989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2523,13 +2508,13 @@
         <v>314968</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>257</v>
@@ -2538,13 +2523,13 @@
         <v>268483</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>556</v>
@@ -2553,13 +2538,13 @@
         <v>583450</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2559,13 @@
         <v>291925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -2589,13 +2574,13 @@
         <v>152815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>428</v>
@@ -2604,13 +2589,13 @@
         <v>444740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2610,13 @@
         <v>297909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -2640,13 +2625,13 @@
         <v>100443</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>386</v>
@@ -2655,13 +2640,13 @@
         <v>398351</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2661,13 @@
         <v>217695</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -2691,13 +2676,13 @@
         <v>59982</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -2706,13 +2691,13 @@
         <v>277677</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2712,13 @@
         <v>1122496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>556</v>
@@ -2742,13 +2727,13 @@
         <v>581722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1631</v>
@@ -2757,18 +2742,18 @@
         <v>1704218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2780,13 +2765,13 @@
         <v>235856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -2795,13 +2780,13 @@
         <v>194668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -2810,13 +2795,13 @@
         <v>430524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2816,13 @@
         <v>104754</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
@@ -2846,13 +2831,13 @@
         <v>61627</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -2861,13 +2846,13 @@
         <v>166381</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2867,13 @@
         <v>40033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2897,13 +2882,13 @@
         <v>21521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -2912,13 +2897,13 @@
         <v>61554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2918,13 @@
         <v>24667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2948,13 +2933,13 @@
         <v>12359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -2963,13 +2948,13 @@
         <v>37026</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2969,13 @@
         <v>405310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -2999,13 +2984,13 @@
         <v>290176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>667</v>
@@ -3014,13 +2999,13 @@
         <v>695486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3022,13 @@
         <v>643500</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>494</v>
@@ -3052,13 +3037,13 @@
         <v>515729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1113</v>
@@ -3067,13 +3052,13 @@
         <v>1159228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3073,13 @@
         <v>477790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -3103,13 +3088,13 @@
         <v>246142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>695</v>
@@ -3118,13 +3103,13 @@
         <v>723932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3124,13 @@
         <v>443382</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -3154,13 +3139,13 @@
         <v>157125</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>580</v>
@@ -3169,13 +3154,13 @@
         <v>600507</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3175,13 @@
         <v>338655</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -3205,13 +3190,13 @@
         <v>105372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>414</v>
@@ -3220,13 +3205,13 @@
         <v>444027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3226,13 @@
         <v>1903326</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>980</v>
@@ -3256,13 +3241,13 @@
         <v>1024368</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>2802</v>
@@ -3271,18 +3256,18 @@
         <v>2927694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5212B23-8C0E-4F17-AEAD-167F5D793117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F748DE7-5233-4BF8-8A77-DAAAC7E483B1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3318,7 +3303,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3425,13 +3410,13 @@
         <v>33176</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3440,13 +3425,13 @@
         <v>43783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3455,13 +3440,13 @@
         <v>76958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3461,13 @@
         <v>56098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3491,13 +3476,13 @@
         <v>55792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>106</v>
@@ -3506,13 +3491,13 @@
         <v>111891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3512,13 @@
         <v>61065</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -3542,13 +3527,13 @@
         <v>22707</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -3557,13 +3542,13 @@
         <v>83772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3563,13 @@
         <v>33679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3593,13 +3578,13 @@
         <v>17695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3608,13 +3593,13 @@
         <v>51374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3614,13 @@
         <v>184018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>130</v>
@@ -3644,13 +3629,13 @@
         <v>139977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
@@ -3659,18 +3644,18 @@
         <v>323995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3682,13 +3667,13 @@
         <v>250814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>184</v>
@@ -3697,13 +3682,13 @@
         <v>193846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>412</v>
@@ -3712,13 +3697,13 @@
         <v>444660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3718,13 @@
         <v>318666</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>184</v>
@@ -3748,13 +3733,13 @@
         <v>197244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>492</v>
@@ -3763,13 +3748,13 @@
         <v>515910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3769,13 @@
         <v>228869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -3799,13 +3784,13 @@
         <v>123858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>335</v>
@@ -3814,13 +3799,13 @@
         <v>352728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3820,13 @@
         <v>112453</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -3850,13 +3835,13 @@
         <v>55689</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>156</v>
@@ -3865,13 +3850,13 @@
         <v>168143</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3871,13 @@
         <v>910802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>533</v>
@@ -3901,13 +3886,13 @@
         <v>570638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1395</v>
@@ -3916,18 +3901,18 @@
         <v>1481440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3939,13 +3924,13 @@
         <v>166301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -3954,13 +3939,13 @@
         <v>109531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>247</v>
@@ -3969,13 +3954,13 @@
         <v>275832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3975,13 @@
         <v>84017</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H15" s="7">
         <v>76</v>
@@ -4005,13 +3990,13 @@
         <v>84443</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -4020,13 +4005,13 @@
         <v>168460</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4026,13 @@
         <v>52461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4056,13 +4041,13 @@
         <v>25773</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -4071,13 +4056,13 @@
         <v>78235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4077,13 @@
         <v>13477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4107,13 +4092,13 @@
         <v>13350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4122,13 +4107,13 @@
         <v>26828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4128,13 @@
         <v>316257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>209</v>
@@ -4158,13 +4143,13 @@
         <v>233097</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>495</v>
@@ -4173,13 +4158,13 @@
         <v>549354</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4181,13 @@
         <v>450291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
@@ -4211,13 +4196,13 @@
         <v>347160</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>732</v>
@@ -4226,13 +4211,13 @@
         <v>797450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4232,13 @@
         <v>458781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>313</v>
@@ -4262,13 +4247,13 @@
         <v>337479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>753</v>
@@ -4277,13 +4262,13 @@
         <v>796261</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4283,13 @@
         <v>342396</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -4313,13 +4298,13 @@
         <v>172339</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M21" s="7">
         <v>481</v>
@@ -4328,13 +4313,13 @@
         <v>514735</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4334,13 @@
         <v>159610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -4364,13 +4349,13 @@
         <v>86734</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>230</v>
@@ -4379,13 +4364,13 @@
         <v>246344</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4385,13 @@
         <v>1411078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>872</v>
@@ -4415,13 +4400,13 @@
         <v>943712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>2196</v>
@@ -4430,18 +4415,18 @@
         <v>2354790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4460,7 +4445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDB9D3A-AAC1-4A10-B795-5838FB681320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A0257B-5B90-4DF9-ACFC-79A5DBFC3ECB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4477,7 +4462,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4584,13 +4569,13 @@
         <v>20868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4599,13 +4584,13 @@
         <v>20118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4614,13 +4599,13 @@
         <v>40986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4620,13 @@
         <v>38905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4650,13 +4635,13 @@
         <v>18086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
@@ -4665,13 +4650,13 @@
         <v>56992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4671,13 @@
         <v>41636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4701,13 +4686,13 @@
         <v>20320</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -4716,13 +4701,13 @@
         <v>61956</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4722,13 @@
         <v>37594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4752,13 +4737,13 @@
         <v>13563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4767,13 +4752,13 @@
         <v>51156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4773,13 @@
         <v>139003</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -4803,13 +4788,13 @@
         <v>72087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>202</v>
@@ -4818,18 +4803,18 @@
         <v>211090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4841,13 +4826,13 @@
         <v>246646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H9" s="7">
         <v>212</v>
@@ -4856,13 +4841,13 @@
         <v>216217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>444</v>
@@ -4871,13 +4856,13 @@
         <v>462863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4877,13 @@
         <v>301204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>212</v>
@@ -4907,13 +4892,13 @@
         <v>214297</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>493</v>
@@ -4922,13 +4907,13 @@
         <v>515500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4928,13 @@
         <v>239928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -4958,13 +4943,13 @@
         <v>144892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>367</v>
@@ -4973,13 +4958,13 @@
         <v>384821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4979,13 @@
         <v>133731</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>355</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -5009,13 +4994,13 @@
         <v>75418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>194</v>
@@ -5024,13 +5009,13 @@
         <v>209149</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5030,13 @@
         <v>921509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>636</v>
@@ -5060,13 +5045,13 @@
         <v>650824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1498</v>
@@ -5075,18 +5060,18 @@
         <v>1572333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5098,13 +5083,13 @@
         <v>173476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -5113,13 +5098,13 @@
         <v>155902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -5128,13 +5113,13 @@
         <v>329378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5134,13 @@
         <v>118026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H15" s="7">
         <v>85</v>
@@ -5164,13 +5149,13 @@
         <v>85715</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="M15" s="7">
         <v>191</v>
@@ -5179,13 +5164,13 @@
         <v>203742</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5185,13 @@
         <v>39476</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5215,13 +5200,13 @@
         <v>45330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -5230,13 +5215,13 @@
         <v>84806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5236,13 @@
         <v>16922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5266,13 +5251,13 @@
         <v>21506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5281,13 +5266,13 @@
         <v>38428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5287,13 @@
         <v>347900</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>299</v>
@@ -5317,13 +5302,13 @@
         <v>308453</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>617</v>
@@ -5332,13 +5317,13 @@
         <v>656353</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,10 +5340,10 @@
         <v>440990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>398</v>
@@ -5427,7 +5412,7 @@
         <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>739</v>
@@ -5436,13 +5421,13 @@
         <v>776234</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5442,13 @@
         <v>321040</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H21" s="7">
         <v>206</v>
@@ -5472,13 +5457,13 @@
         <v>210542</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M21" s="7">
         <v>510</v>
@@ -5487,13 +5472,13 @@
         <v>531582</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5493,13 @@
         <v>188246</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -5523,13 +5508,13 @@
         <v>110486</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>276</v>
@@ -5538,13 +5523,13 @@
         <v>298733</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5544,13 @@
         <v>1408412</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1007</v>
@@ -5574,13 +5559,13 @@
         <v>1031364</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>2317</v>
@@ -5589,18 +5574,18 @@
         <v>2439776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A0795C-5AFF-4429-BF6B-B20E25D0B1FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED8124D-623E-4A50-82AD-E8634934F08E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5728,13 @@
         <v>14115</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5758,13 +5743,13 @@
         <v>6877</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>437</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5773,13 +5758,13 @@
         <v>20991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>439</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>50</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5779,13 @@
         <v>11476</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -5809,13 +5794,13 @@
         <v>15928</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -5824,13 +5809,13 @@
         <v>27404</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5830,13 @@
         <v>22318</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>448</v>
+        <v>311</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5860,13 +5845,13 @@
         <v>11662</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5875,13 +5860,13 @@
         <v>33981</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,13 +5881,13 @@
         <v>19363</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5911,13 +5896,13 @@
         <v>8552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>458</v>
+        <v>300</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5926,13 +5911,13 @@
         <v>27915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5932,13 @@
         <v>67272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -5962,13 +5947,13 @@
         <v>43019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>139</v>
@@ -5977,18 +5962,18 @@
         <v>110291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -6000,13 +5985,13 @@
         <v>182510</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H9" s="7">
         <v>155</v>
@@ -6015,13 +6000,13 @@
         <v>120250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M9" s="7">
         <v>273</v>
@@ -6030,13 +6015,13 @@
         <v>302760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6036,13 @@
         <v>214991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H10" s="7">
         <v>224</v>
@@ -6066,13 +6051,13 @@
         <v>163151</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M10" s="7">
         <v>421</v>
@@ -6081,13 +6066,13 @@
         <v>378142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6087,13 @@
         <v>154176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -6117,13 +6102,13 @@
         <v>109645</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M11" s="7">
         <v>292</v>
@@ -6132,13 +6117,13 @@
         <v>263821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6138,13 @@
         <v>82446</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -6168,13 +6153,13 @@
         <v>63421</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>493</v>
+        <v>154</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -6183,13 +6168,13 @@
         <v>145867</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>382</v>
+        <v>492</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6189,13 @@
         <v>634123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>599</v>
@@ -6219,13 +6204,13 @@
         <v>456467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1124</v>
@@ -6234,18 +6219,18 @@
         <v>1090590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6257,13 +6242,13 @@
         <v>144401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -6272,13 +6257,13 @@
         <v>100603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -6287,13 +6272,13 @@
         <v>245005</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6293,13 @@
         <v>72287</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H15" s="7">
         <v>108</v>
@@ -6323,13 +6308,13 @@
         <v>70841</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
@@ -6338,13 +6323,13 @@
         <v>143128</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>509</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6344,13 @@
         <v>20278</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -6374,13 +6359,13 @@
         <v>28396</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -6389,13 +6374,13 @@
         <v>48674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>519</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6395,13 @@
         <v>17018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -6425,13 +6410,13 @@
         <v>13935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -6440,13 +6425,13 @@
         <v>30952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6446,13 @@
         <v>253984</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>297</v>
@@ -6476,13 +6461,13 @@
         <v>213775</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>530</v>
@@ -6491,13 +6476,13 @@
         <v>467759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6499,13 @@
         <v>341025</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H19" s="7">
         <v>301</v>
@@ -6529,13 +6514,13 @@
         <v>227730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
@@ -6544,13 +6529,13 @@
         <v>568756</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6550,13 @@
         <v>298754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>541</v>
+        <v>203</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
@@ -6580,13 +6565,13 @@
         <v>249920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
@@ -6595,13 +6580,13 @@
         <v>548674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6601,13 @@
         <v>196772</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H21" s="7">
         <v>201</v>
@@ -6631,13 +6616,13 @@
         <v>149704</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
@@ -6646,13 +6631,13 @@
         <v>346476</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6652,13 @@
         <v>118827</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>293</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -6682,13 +6667,13 @@
         <v>85907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -6697,13 +6682,13 @@
         <v>204734</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>562</v>
+        <v>516</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6703,13 @@
         <v>955379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>961</v>
@@ -6733,13 +6718,13 @@
         <v>713261</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1793</v>
@@ -6748,18 +6733,18 @@
         <v>1668640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6604-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64869A86-5BF4-4A0B-B9B2-9A4A07CE8115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{223CB88D-9917-45E1-BC58-EF8B7120AE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{317A056C-07EB-441A-8A41-6197B072B0A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB770ED-396E-4C54-ADF5-91EF66A44CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="561">
   <si>
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,1587 +77,1596 @@
     <t>24,68%</t>
   </si>
   <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>28,78%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>31,52%</t>
   </si>
   <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
     <t>38,48%</t>
   </si>
   <si>
@@ -1674,9 +1683,6 @@
   </si>
   <si>
     <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
   </si>
   <si>
     <t>18,2%</t>
@@ -2127,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A736D157-0FF9-4D96-88D9-7D38CAD683FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1087BA7-496D-4CF6-9195-912EBD38E049}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3127,10 +3133,10 @@
         <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -3139,13 +3145,13 @@
         <v>157125</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>580</v>
@@ -3154,13 +3160,13 @@
         <v>600507</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3181,13 @@
         <v>338655</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -3190,13 +3196,13 @@
         <v>105372</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>414</v>
@@ -3205,13 +3211,13 @@
         <v>444027</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,7 +3273,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3286,7 +3292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F748DE7-5233-4BF8-8A77-DAAAC7E483B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA764CC-8733-43EA-A4BC-EBE2636F1420}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3303,7 +3309,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3410,10 +3416,10 @@
         <v>33176</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>163</v>
@@ -3425,13 +3431,13 @@
         <v>43783</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3440,13 +3446,13 @@
         <v>76958</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3467,13 @@
         <v>56098</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3476,13 +3482,13 @@
         <v>55792</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>106</v>
@@ -3491,13 +3497,13 @@
         <v>111891</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3518,13 @@
         <v>61065</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -3527,13 +3533,13 @@
         <v>22707</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -3569,7 +3575,7 @@
         <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3578,13 +3584,13 @@
         <v>17695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3593,13 +3599,13 @@
         <v>51374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,10 +3673,10 @@
         <v>250814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>197</v>
@@ -3697,10 +3703,10 @@
         <v>444660</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>202</v>
@@ -3978,10 +3984,10 @@
         <v>239</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H15" s="7">
         <v>76</v>
@@ -3990,13 +3996,13 @@
         <v>84443</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -4005,13 +4011,13 @@
         <v>168460</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4032,13 @@
         <v>52461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4041,13 +4047,13 @@
         <v>25773</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -4056,13 +4062,13 @@
         <v>78235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4086,10 @@
         <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4092,13 +4098,13 @@
         <v>13350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4107,13 +4113,13 @@
         <v>26828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4187,13 @@
         <v>450291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
@@ -4196,13 +4202,13 @@
         <v>347160</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>732</v>
@@ -4211,13 +4217,13 @@
         <v>797450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4238,13 @@
         <v>458781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>313</v>
@@ -4247,13 +4253,13 @@
         <v>337479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>753</v>
@@ -4265,10 +4271,10 @@
         <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4289,13 @@
         <v>342396</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>163</v>
+        <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -4298,13 +4304,13 @@
         <v>172339</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>481</v>
@@ -4313,13 +4319,13 @@
         <v>514735</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4340,13 @@
         <v>159610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -4349,13 +4355,13 @@
         <v>86734</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>230</v>
@@ -4364,13 +4370,13 @@
         <v>246344</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4432,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4445,7 +4451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A0257B-5B90-4DF9-ACFC-79A5DBFC3ECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3D454E-0E29-4B6E-80C4-66F9461CECD6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4462,7 +4468,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4569,13 +4575,13 @@
         <v>20868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4584,13 +4590,13 @@
         <v>20118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4599,13 +4605,13 @@
         <v>40986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4626,13 @@
         <v>38905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4635,13 +4641,13 @@
         <v>18086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
@@ -4650,13 +4656,13 @@
         <v>56992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4677,13 @@
         <v>41636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4686,13 +4692,13 @@
         <v>20320</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -4701,13 +4707,13 @@
         <v>61956</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4728,13 @@
         <v>37594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4737,13 +4743,13 @@
         <v>13563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4752,13 +4758,13 @@
         <v>51156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4832,13 @@
         <v>246646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>329</v>
+        <v>139</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H9" s="7">
         <v>212</v>
@@ -4841,13 +4847,13 @@
         <v>216217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M9" s="7">
         <v>444</v>
@@ -4856,13 +4862,13 @@
         <v>462863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4883,13 @@
         <v>301204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>212</v>
@@ -4892,13 +4898,13 @@
         <v>214297</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>493</v>
@@ -4907,13 +4913,13 @@
         <v>515500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4934,13 @@
         <v>239928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -4943,13 +4949,13 @@
         <v>144892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>367</v>
@@ -4958,13 +4964,13 @@
         <v>384821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4985,13 @@
         <v>133731</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -4994,13 +5000,13 @@
         <v>75418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>194</v>
@@ -5009,13 +5015,13 @@
         <v>209149</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5089,13 @@
         <v>173476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -5098,13 +5104,13 @@
         <v>155902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -5113,13 +5119,13 @@
         <v>329378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5140,13 @@
         <v>118026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H15" s="7">
         <v>85</v>
@@ -5149,13 +5155,13 @@
         <v>85715</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M15" s="7">
         <v>191</v>
@@ -5164,13 +5170,13 @@
         <v>203742</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,10 +5194,10 @@
         <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5200,13 +5206,13 @@
         <v>45330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -5215,13 +5221,13 @@
         <v>84806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5242,13 @@
         <v>16922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5251,13 +5257,13 @@
         <v>21506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5266,13 +5272,13 @@
         <v>38428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5346,13 @@
         <v>440990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>382</v>
@@ -5355,13 +5361,13 @@
         <v>392237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>792</v>
@@ -5370,13 +5376,13 @@
         <v>833227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5397,13 @@
         <v>458135</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>315</v>
@@ -5406,13 +5412,13 @@
         <v>318099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>739</v>
@@ -5421,13 +5427,13 @@
         <v>776234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5448,13 @@
         <v>321040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>414</v>
+        <v>189</v>
       </c>
       <c r="H21" s="7">
         <v>206</v>
@@ -5457,10 +5463,10 @@
         <v>210542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>416</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>417</v>
@@ -5496,10 +5502,10 @@
         <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -5508,13 +5514,13 @@
         <v>110486</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>276</v>
@@ -5523,13 +5529,13 @@
         <v>298733</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5591,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +5610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED8124D-623E-4A50-82AD-E8634934F08E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB44C714-1035-4C5E-9667-B7EF069E8BD5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5621,7 +5627,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,13 +5734,13 @@
         <v>14115</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5743,13 +5749,13 @@
         <v>6877</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5758,10 +5764,10 @@
         <v>20991</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>437</v>
@@ -5785,7 +5791,7 @@
         <v>439</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>440</v>
+        <v>69</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -5794,13 +5800,13 @@
         <v>15928</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -5809,13 +5815,13 @@
         <v>27404</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5836,13 @@
         <v>22318</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5845,13 +5851,13 @@
         <v>11662</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5860,13 +5866,13 @@
         <v>33981</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,7 +5887,7 @@
         <v>19363</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>454</v>
@@ -5896,13 +5902,13 @@
         <v>8552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>300</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5911,13 +5917,13 @@
         <v>27915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5991,13 @@
         <v>182510</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>453</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H9" s="7">
         <v>155</v>
@@ -6000,13 +6006,13 @@
         <v>120250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M9" s="7">
         <v>273</v>
@@ -6015,13 +6021,13 @@
         <v>302760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6042,13 @@
         <v>214991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H10" s="7">
         <v>224</v>
@@ -6051,13 +6057,13 @@
         <v>163151</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M10" s="7">
         <v>421</v>
@@ -6066,13 +6072,13 @@
         <v>378142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>72</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,13 +6093,13 @@
         <v>154176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -6102,13 +6108,13 @@
         <v>109645</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M11" s="7">
         <v>292</v>
@@ -6117,13 +6123,13 @@
         <v>263821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6144,13 @@
         <v>82446</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -6153,13 +6159,13 @@
         <v>63421</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -6168,13 +6174,13 @@
         <v>145867</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,13 +6248,13 @@
         <v>144401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -6257,13 +6263,13 @@
         <v>100603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -6272,13 +6278,13 @@
         <v>245005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6299,13 @@
         <v>72287</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H15" s="7">
         <v>108</v>
@@ -6308,13 +6314,13 @@
         <v>70841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
@@ -6323,13 +6329,13 @@
         <v>143128</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6350,13 @@
         <v>20278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>513</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -6359,13 +6365,13 @@
         <v>28396</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -6374,13 +6380,13 @@
         <v>48674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6401,13 @@
         <v>17018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -6410,13 +6416,13 @@
         <v>13935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -6425,13 +6431,13 @@
         <v>30952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6505,13 @@
         <v>341025</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>301</v>
@@ -6514,13 +6520,13 @@
         <v>227730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
@@ -6529,13 +6535,13 @@
         <v>568756</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>535</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,10 +6556,10 @@
         <v>298754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>203</v>
@@ -6565,13 +6571,13 @@
         <v>249920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>541</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
@@ -6580,13 +6586,13 @@
         <v>548674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6607,13 @@
         <v>196772</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H21" s="7">
         <v>201</v>
@@ -6616,13 +6622,13 @@
         <v>149704</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>545</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
@@ -6631,13 +6637,13 @@
         <v>346476</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6658,13 @@
         <v>118827</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -6667,13 +6673,13 @@
         <v>85907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -6682,13 +6688,13 @@
         <v>204734</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,7 +6750,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6604-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223CB88D-9917-45E1-BC58-EF8B7120AE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A394B915-67E1-41F1-BB33-2E942810B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB770ED-396E-4C54-ADF5-91EF66A44CE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C60778D-CF9F-43FF-BD10-37B12BBE52CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="564">
   <si>
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>24,68%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>34,48%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>21,6%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,1591 +137,1600 @@
     <t>28,08%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>16,76%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2012 (Tasa respuesta: 33,83%)</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>14,76%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1087BA7-496D-4CF6-9195-912EBD38E049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915AD8B-86F9-4F57-84CD-4EBD35932CEE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2413,10 +2422,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2425,13 +2434,13 @@
         <v>33031</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -2440,13 +2449,13 @@
         <v>129324</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2470,13 @@
         <v>375520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -2476,13 +2485,13 @@
         <v>152469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -2491,18 +2500,18 @@
         <v>527989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2514,13 +2523,13 @@
         <v>314968</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>257</v>
@@ -2529,13 +2538,13 @@
         <v>268483</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>556</v>
@@ -2544,13 +2553,13 @@
         <v>583450</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2574,13 @@
         <v>291925</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -2580,13 +2589,13 @@
         <v>152815</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>428</v>
@@ -2595,13 +2604,13 @@
         <v>444740</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2625,13 @@
         <v>297909</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>98</v>
@@ -2631,13 +2640,13 @@
         <v>100443</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>386</v>
@@ -2646,13 +2655,13 @@
         <v>398351</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2676,13 @@
         <v>217695</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -2682,13 +2691,13 @@
         <v>59982</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -2697,13 +2706,13 @@
         <v>277677</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2727,13 @@
         <v>1122496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>556</v>
@@ -2733,13 +2742,13 @@
         <v>581722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1631</v>
@@ -2748,18 +2757,18 @@
         <v>1704218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2771,13 +2780,13 @@
         <v>235856</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -2786,13 +2795,13 @@
         <v>194668</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>415</v>
@@ -2801,13 +2810,13 @@
         <v>430524</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2831,13 @@
         <v>104754</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>58</v>
@@ -2837,13 +2846,13 @@
         <v>61627</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -2852,13 +2861,13 @@
         <v>166381</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2882,13 @@
         <v>40033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2888,13 +2897,13 @@
         <v>21521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -2903,13 +2912,13 @@
         <v>61554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2933,13 @@
         <v>24667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2939,13 +2948,13 @@
         <v>12359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -2954,13 +2963,13 @@
         <v>37026</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2984,13 @@
         <v>405310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -2990,13 +2999,13 @@
         <v>290176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>667</v>
@@ -3005,13 +3014,13 @@
         <v>695486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3037,13 @@
         <v>643500</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>494</v>
@@ -3043,13 +3052,13 @@
         <v>515729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>1113</v>
@@ -3058,13 +3067,13 @@
         <v>1159228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3088,13 @@
         <v>477790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -3094,13 +3103,13 @@
         <v>246142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>695</v>
@@ -3109,13 +3118,13 @@
         <v>723932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3139,13 @@
         <v>443382</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -3145,13 +3154,13 @@
         <v>157125</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M21" s="7">
         <v>580</v>
@@ -3160,13 +3169,13 @@
         <v>600507</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3190,13 @@
         <v>338655</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -3196,13 +3205,13 @@
         <v>105372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>414</v>
@@ -3211,13 +3220,13 @@
         <v>444027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3241,13 @@
         <v>1903326</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>980</v>
@@ -3247,13 +3256,13 @@
         <v>1024368</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>2802</v>
@@ -3262,18 +3271,18 @@
         <v>2927694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +3301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA764CC-8733-43EA-A4BC-EBE2636F1420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76799CC3-258A-4819-A3B2-4DA1592E8D66}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3309,7 +3318,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3416,13 +3425,13 @@
         <v>33176</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -3431,13 +3440,13 @@
         <v>43783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3446,13 +3455,13 @@
         <v>76958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3476,13 @@
         <v>56098</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3482,13 +3491,13 @@
         <v>55792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>106</v>
@@ -3497,13 +3506,13 @@
         <v>111891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3527,13 @@
         <v>61065</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -3533,13 +3542,13 @@
         <v>22707</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -3548,13 +3557,13 @@
         <v>83772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3578,13 @@
         <v>33679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3584,13 +3593,13 @@
         <v>17695</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3599,13 +3608,13 @@
         <v>51374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3629,13 @@
         <v>184018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>130</v>
@@ -3635,13 +3644,13 @@
         <v>139977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>306</v>
@@ -3650,18 +3659,18 @@
         <v>323995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3673,13 +3682,13 @@
         <v>250814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>184</v>
@@ -3688,13 +3697,13 @@
         <v>193846</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>412</v>
@@ -3703,13 +3712,13 @@
         <v>444660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3733,13 @@
         <v>318666</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>184</v>
@@ -3739,13 +3748,13 @@
         <v>197244</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>492</v>
@@ -3754,13 +3763,13 @@
         <v>515910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3784,13 @@
         <v>228869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>112</v>
@@ -3790,13 +3799,13 @@
         <v>123858</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>335</v>
@@ -3805,13 +3814,13 @@
         <v>352728</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3835,13 @@
         <v>112453</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -3841,13 +3850,13 @@
         <v>55689</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>156</v>
@@ -3856,13 +3865,13 @@
         <v>168143</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3886,13 @@
         <v>910802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>533</v>
@@ -3892,13 +3901,13 @@
         <v>570638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1395</v>
@@ -3907,18 +3916,18 @@
         <v>1481440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3930,13 +3939,13 @@
         <v>166301</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -3945,13 +3954,13 @@
         <v>109531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>247</v>
@@ -3960,13 +3969,13 @@
         <v>275832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3990,13 @@
         <v>84017</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H15" s="7">
         <v>76</v>
@@ -3996,13 +4005,13 @@
         <v>84443</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -4011,13 +4020,13 @@
         <v>168460</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4041,13 @@
         <v>52461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4047,13 +4056,13 @@
         <v>25773</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -4062,13 +4071,13 @@
         <v>78235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4092,13 @@
         <v>13477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4098,13 +4107,13 @@
         <v>13350</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4113,13 +4122,13 @@
         <v>26828</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4143,13 @@
         <v>316257</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>209</v>
@@ -4149,13 +4158,13 @@
         <v>233097</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>495</v>
@@ -4164,13 +4173,13 @@
         <v>549354</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4196,13 @@
         <v>450291</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
@@ -4202,13 +4211,13 @@
         <v>347160</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>732</v>
@@ -4217,13 +4226,13 @@
         <v>797450</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4247,13 @@
         <v>458781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>313</v>
@@ -4253,13 +4262,13 @@
         <v>337479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>753</v>
@@ -4268,13 +4277,13 @@
         <v>796261</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4298,13 @@
         <v>342396</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -4304,13 +4313,13 @@
         <v>172339</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M21" s="7">
         <v>481</v>
@@ -4319,13 +4328,13 @@
         <v>514735</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>280</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4349,13 @@
         <v>159610</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -4355,13 +4364,13 @@
         <v>86734</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>230</v>
@@ -4370,13 +4379,13 @@
         <v>246344</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4400,13 @@
         <v>1411078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>872</v>
@@ -4406,13 +4415,13 @@
         <v>943712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>2196</v>
@@ -4421,18 +4430,18 @@
         <v>2354790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3D454E-0E29-4B6E-80C4-66F9461CECD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8503E7E1-5811-4AD6-B5CD-C1701CA13120}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4468,7 +4477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4575,13 +4584,13 @@
         <v>20868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4590,13 +4599,13 @@
         <v>20118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -4605,13 +4614,13 @@
         <v>40986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4635,13 @@
         <v>38905</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4641,13 +4650,13 @@
         <v>18086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>55</v>
@@ -4656,13 +4665,13 @@
         <v>56992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4686,13 @@
         <v>41636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -4692,13 +4701,13 @@
         <v>20320</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -4707,13 +4716,13 @@
         <v>61956</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4737,13 @@
         <v>37594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -4743,13 +4752,13 @@
         <v>13563</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -4758,13 +4767,13 @@
         <v>51156</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4788,13 @@
         <v>139003</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -4794,13 +4803,13 @@
         <v>72087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>202</v>
@@ -4809,18 +4818,18 @@
         <v>211090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4832,13 +4841,13 @@
         <v>246646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H9" s="7">
         <v>212</v>
@@ -4847,13 +4856,13 @@
         <v>216217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M9" s="7">
         <v>444</v>
@@ -4862,13 +4871,13 @@
         <v>462863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4892,13 @@
         <v>301204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>212</v>
@@ -4898,13 +4907,13 @@
         <v>214297</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>493</v>
@@ -4913,13 +4922,13 @@
         <v>515500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4943,13 @@
         <v>239928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -4949,13 +4958,13 @@
         <v>144892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>367</v>
@@ -4964,13 +4973,13 @@
         <v>384821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4994,13 @@
         <v>133731</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -5000,13 +5009,13 @@
         <v>75418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>194</v>
@@ -5015,13 +5024,13 @@
         <v>209149</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5045,13 @@
         <v>921509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>636</v>
@@ -5051,13 +5060,13 @@
         <v>650824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1498</v>
@@ -5066,18 +5075,18 @@
         <v>1572333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5089,13 +5098,13 @@
         <v>173476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -5104,13 +5113,13 @@
         <v>155902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -5119,13 +5128,13 @@
         <v>329378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5149,13 @@
         <v>118026</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H15" s="7">
         <v>85</v>
@@ -5155,13 +5164,13 @@
         <v>85715</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="M15" s="7">
         <v>191</v>
@@ -5170,13 +5179,13 @@
         <v>203742</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5200,13 @@
         <v>39476</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5206,13 +5215,13 @@
         <v>45330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -5221,13 +5230,13 @@
         <v>84806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5251,13 @@
         <v>16922</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -5257,13 +5266,13 @@
         <v>21506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5272,13 +5281,13 @@
         <v>38428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5302,13 @@
         <v>347900</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>299</v>
@@ -5308,13 +5317,13 @@
         <v>308453</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>617</v>
@@ -5323,13 +5332,13 @@
         <v>656353</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5355,13 @@
         <v>440990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>382</v>
@@ -5361,13 +5370,13 @@
         <v>392237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>792</v>
@@ -5376,13 +5385,13 @@
         <v>833227</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5406,13 @@
         <v>458135</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>315</v>
@@ -5412,13 +5421,13 @@
         <v>318099</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>739</v>
@@ -5427,13 +5436,13 @@
         <v>776234</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5457,13 @@
         <v>321040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>415</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="H21" s="7">
         <v>206</v>
@@ -5466,10 +5475,10 @@
         <v>416</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>417</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M21" s="7">
         <v>510</v>
@@ -5478,13 +5487,13 @@
         <v>531582</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5508,13 @@
         <v>188246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -5514,13 +5523,13 @@
         <v>110486</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>276</v>
@@ -5529,13 +5538,13 @@
         <v>298733</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5559,13 @@
         <v>1408412</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1007</v>
@@ -5565,13 +5574,13 @@
         <v>1031364</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>2317</v>
@@ -5580,18 +5589,18 @@
         <v>2439776</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5610,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB44C714-1035-4C5E-9667-B7EF069E8BD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6D79C8-8731-4BDF-B082-001A3B913073}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5627,7 +5636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5734,13 +5743,13 @@
         <v>14115</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5749,13 +5758,13 @@
         <v>6877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5764,13 +5773,13 @@
         <v>20991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>437</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5794,13 @@
         <v>11476</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>442</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -5800,13 +5809,13 @@
         <v>15928</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -5815,13 +5824,13 @@
         <v>27404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>445</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5845,13 @@
         <v>22318</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -5851,13 +5860,13 @@
         <v>11662</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>449</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5866,13 +5875,13 @@
         <v>33981</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5896,13 @@
         <v>19363</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -5902,13 +5911,13 @@
         <v>8552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5917,13 +5926,13 @@
         <v>27915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5947,13 @@
         <v>67272</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -5953,13 +5962,13 @@
         <v>43019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>139</v>
@@ -5968,18 +5977,18 @@
         <v>110291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5991,13 +6000,13 @@
         <v>182510</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H9" s="7">
         <v>155</v>
@@ -6006,13 +6015,13 @@
         <v>120250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M9" s="7">
         <v>273</v>
@@ -6021,13 +6030,13 @@
         <v>302760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6051,13 @@
         <v>214991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H10" s="7">
         <v>224</v>
@@ -6057,13 +6066,13 @@
         <v>163151</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M10" s="7">
         <v>421</v>
@@ -6072,13 +6081,13 @@
         <v>378142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6102,13 @@
         <v>154176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -6108,13 +6117,13 @@
         <v>109645</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M11" s="7">
         <v>292</v>
@@ -6123,13 +6132,13 @@
         <v>263821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>487</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6153,13 @@
         <v>82446</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -6159,13 +6168,13 @@
         <v>63421</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>153</v>
+        <v>493</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -6174,13 +6183,13 @@
         <v>145867</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>494</v>
+        <v>382</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6204,13 @@
         <v>634123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>599</v>
@@ -6210,13 +6219,13 @@
         <v>456467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>1124</v>
@@ -6225,18 +6234,18 @@
         <v>1090590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6248,13 +6257,13 @@
         <v>144401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -6263,13 +6272,13 @@
         <v>100603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>501</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -6317,10 +6326,10 @@
         <v>508</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
@@ -6329,13 +6338,13 @@
         <v>143128</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,7 +6359,7 @@
         <v>20278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>512</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>513</v>
@@ -6452,13 +6461,13 @@
         <v>253984</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>297</v>
@@ -6467,13 +6476,13 @@
         <v>213775</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>530</v>
@@ -6482,13 +6491,13 @@
         <v>467759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,7 +6550,7 @@
         <v>537</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6565,13 @@
         <v>298754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>203</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
@@ -6571,13 +6580,13 @@
         <v>249920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
@@ -6586,13 +6595,13 @@
         <v>548674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6616,13 @@
         <v>196772</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H21" s="7">
         <v>201</v>
@@ -6622,13 +6631,13 @@
         <v>149704</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>42</v>
+        <v>551</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
@@ -6637,13 +6646,13 @@
         <v>346476</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6667,13 @@
         <v>118827</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -6673,13 +6682,13 @@
         <v>85907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
@@ -6688,13 +6697,13 @@
         <v>204734</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6718,13 @@
         <v>955379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>961</v>
@@ -6724,13 +6733,13 @@
         <v>713261</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1793</v>
@@ -6739,18 +6748,18 @@
         <v>1668640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6604-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A394B915-67E1-41F1-BB33-2E942810B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F04DD3F6-945B-43B0-A7A7-6892A0671C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C60778D-CF9F-43FF-BD10-37B12BBE52CB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2EB01664-1C7A-48D7-92D5-64DB68892C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="565">
   <si>
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -1337,400 +1337,403 @@
     <t>Población según la exposición a posiciones dolorosas/ fatigantes en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
   </si>
   <si>
-    <t>20,98%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D915AD8B-86F9-4F57-84CD-4EBD35932CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DB3FF4-A1B8-4C83-B90B-E48EEB9B3047}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2792,7 +2795,7 @@
         <v>188</v>
       </c>
       <c r="I14" s="7">
-        <v>194668</v>
+        <v>194669</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -2945,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>12359</v>
+        <v>12360</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
@@ -2996,7 +2999,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -3301,7 +3304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76799CC3-258A-4819-A3B2-4DA1592E8D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC381E0-DD0E-4A37-BF91-DB7A3F3062F4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4460,7 +4463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8503E7E1-5811-4AD6-B5CD-C1701CA13120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64333081-DED6-4D08-8116-BF73313ACF82}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5619,7 +5622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6D79C8-8731-4BDF-B082-001A3B913073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B449D7-871E-40FB-993E-5C37B6ECC9E8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5740,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>14115</v>
+        <v>12935</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>432</v>
@@ -5755,7 +5758,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>6877</v>
+        <v>6326</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>435</v>
@@ -5770,7 +5773,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>20991</v>
+        <v>19262</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>438</v>
@@ -5779,7 +5782,7 @@
         <v>439</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>50</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,7 +5794,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>11476</v>
+        <v>11687</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>440</v>
@@ -5806,7 +5809,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>15928</v>
+        <v>14461</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>443</v>
@@ -5821,7 +5824,7 @@
         <v>41</v>
       </c>
       <c r="N5" s="7">
-        <v>27404</v>
+        <v>26148</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>446</v>
@@ -5830,7 +5833,7 @@
         <v>447</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,46 +5845,46 @@
         <v>25</v>
       </c>
       <c r="D6" s="7">
-        <v>22318</v>
+        <v>23041</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>449</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>11662</v>
+        <v>10539</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>160</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>33981</v>
+        <v>33580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,46 +5896,46 @@
         <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>19363</v>
+        <v>17750</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>456</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>8552</v>
+        <v>7797</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>459</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>27915</v>
+        <v>25547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5947,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>67272</v>
+        <v>65414</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -5959,7 +5962,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>43019</v>
+        <v>39123</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -5974,7 +5977,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>110291</v>
+        <v>104537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -5997,46 +6000,46 @@
         <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>182510</v>
+        <v>368440</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H9" s="7">
         <v>155</v>
       </c>
       <c r="I9" s="7">
-        <v>120250</v>
+        <v>108979</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M9" s="7">
         <v>273</v>
       </c>
       <c r="N9" s="7">
-        <v>302760</v>
+        <v>477419</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,46 +6051,46 @@
         <v>197</v>
       </c>
       <c r="D10" s="7">
-        <v>214991</v>
+        <v>213589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>224</v>
       </c>
       <c r="I10" s="7">
-        <v>163151</v>
+        <v>150042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>421</v>
       </c>
       <c r="N10" s="7">
-        <v>378142</v>
+        <v>363631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,28 +6102,28 @@
         <v>143</v>
       </c>
       <c r="D11" s="7">
-        <v>154176</v>
+        <v>145558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
       </c>
       <c r="I11" s="7">
-        <v>109645</v>
+        <v>100301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>486</v>
@@ -6129,7 +6132,7 @@
         <v>292</v>
       </c>
       <c r="N11" s="7">
-        <v>263821</v>
+        <v>245858</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>487</v>
@@ -6138,7 +6141,7 @@
         <v>488</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,22 +6153,22 @@
         <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>82446</v>
+        <v>77776</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
       </c>
       <c r="I12" s="7">
-        <v>63421</v>
+        <v>82433</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>492</v>
@@ -6180,16 +6183,16 @@
         <v>138</v>
       </c>
       <c r="N12" s="7">
-        <v>145867</v>
+        <v>160209</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>495</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>382</v>
+        <v>496</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,7 +6204,7 @@
         <v>525</v>
       </c>
       <c r="D13" s="7">
-        <v>634123</v>
+        <v>805362</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -6216,7 +6219,7 @@
         <v>599</v>
       </c>
       <c r="I13" s="7">
-        <v>456467</v>
+        <v>441755</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -6231,7 +6234,7 @@
         <v>1124</v>
       </c>
       <c r="N13" s="7">
-        <v>1090590</v>
+        <v>1247117</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -6254,46 +6257,46 @@
         <v>131</v>
       </c>
       <c r="D14" s="7">
-        <v>144401</v>
+        <v>137247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
       </c>
       <c r="I14" s="7">
-        <v>100603</v>
+        <v>94226</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
       </c>
       <c r="N14" s="7">
-        <v>245005</v>
+        <v>231473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,46 +6308,46 @@
         <v>73</v>
       </c>
       <c r="D15" s="7">
-        <v>72287</v>
+        <v>69560</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H15" s="7">
         <v>108</v>
       </c>
       <c r="I15" s="7">
-        <v>70841</v>
+        <v>66168</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>189</v>
+        <v>511</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
       </c>
       <c r="N15" s="7">
-        <v>143128</v>
+        <v>135728</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>513</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,46 +6359,46 @@
         <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>20278</v>
+        <v>18709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>28396</v>
+        <v>25754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>48674</v>
+        <v>44464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>520</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,46 +6410,46 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>17018</v>
+        <v>16543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>13935</v>
+        <v>12919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
       </c>
       <c r="N17" s="7">
-        <v>30952</v>
+        <v>29461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6461,7 @@
         <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>253984</v>
+        <v>242059</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -6473,7 +6476,7 @@
         <v>297</v>
       </c>
       <c r="I18" s="7">
-        <v>213775</v>
+        <v>199066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -6488,7 +6491,7 @@
         <v>530</v>
       </c>
       <c r="N18" s="7">
-        <v>467759</v>
+        <v>441125</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -6511,46 +6514,46 @@
         <v>261</v>
       </c>
       <c r="D19" s="7">
-        <v>341025</v>
+        <v>518622</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H19" s="7">
         <v>301</v>
       </c>
       <c r="I19" s="7">
-        <v>227730</v>
+        <v>209531</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
       </c>
       <c r="N19" s="7">
-        <v>568756</v>
+        <v>728153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,46 +6565,46 @@
         <v>285</v>
       </c>
       <c r="D20" s="7">
-        <v>298754</v>
+        <v>294836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
       </c>
       <c r="I20" s="7">
-        <v>249920</v>
+        <v>230671</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
       </c>
       <c r="N20" s="7">
-        <v>548674</v>
+        <v>525506</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,46 +6616,46 @@
         <v>185</v>
       </c>
       <c r="D21" s="7">
-        <v>196772</v>
+        <v>187308</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H21" s="7">
         <v>201</v>
       </c>
       <c r="I21" s="7">
-        <v>149704</v>
+        <v>136594</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="M21" s="7">
         <v>386</v>
       </c>
       <c r="N21" s="7">
-        <v>346476</v>
+        <v>323902</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>554</v>
+        <v>482</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>556</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,46 +6667,46 @@
         <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>118827</v>
+        <v>112069</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>293</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
       </c>
       <c r="I22" s="7">
-        <v>85907</v>
+        <v>103149</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M22" s="7">
         <v>202</v>
       </c>
       <c r="N22" s="7">
-        <v>204734</v>
+        <v>215218</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,7 +6718,7 @@
         <v>832</v>
       </c>
       <c r="D23" s="7">
-        <v>955379</v>
+        <v>1112835</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -6730,7 +6733,7 @@
         <v>961</v>
       </c>
       <c r="I23" s="7">
-        <v>713261</v>
+        <v>679944</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -6745,7 +6748,7 @@
         <v>1793</v>
       </c>
       <c r="N23" s="7">
-        <v>1668640</v>
+        <v>1792779</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
